--- a/data/trans_dic/P40_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P40_R-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.902967969346203</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8582762178608545</v>
+        <v>0.8582762178608544</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.8370664993861345</v>
@@ -685,7 +685,7 @@
         <v>0.8903981109613071</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.8370915666581069</v>
+        <v>0.8370915666581068</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.8627328726664892</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8467600410719079</v>
+        <v>0.8462309499127839</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8528377180875507</v>
+        <v>0.8522078343177916</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8704219684345746</v>
+        <v>0.8713618965192003</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8264965410994615</v>
+        <v>0.8287946977119771</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7897865429452322</v>
+        <v>0.7871695530749466</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8240755139112472</v>
+        <v>0.8254988444514921</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8508790670806192</v>
+        <v>0.853163270228173</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.80520388136415</v>
+        <v>0.8032867145316912</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8380985868969536</v>
+        <v>0.8356419855766005</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.8546468412979017</v>
+        <v>0.8550261446218685</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8724889606632806</v>
+        <v>0.8737266337074697</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8279953373747079</v>
+        <v>0.8272336275004121</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9072180999548258</v>
+        <v>0.9084396622243434</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9182890762069282</v>
+        <v>0.9179964957872959</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9302919669339312</v>
+        <v>0.928803966849269</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8856211736771541</v>
+        <v>0.8866483573522397</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8753999904759899</v>
+        <v>0.8764673536472218</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9083394543590053</v>
+        <v>0.906165117603533</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9208195646437561</v>
+        <v>0.9233674998320101</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8633733344353115</v>
+        <v>0.8630905919262738</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8878215414156627</v>
+        <v>0.8854948012976952</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9052282474957872</v>
+        <v>0.9036005651503602</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9176733413834658</v>
+        <v>0.9192964092776333</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8683916214389652</v>
+        <v>0.869673648944259</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8890511373403317</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8582939234904216</v>
+        <v>0.8582939234904214</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.832143890968192</v>
@@ -833,7 +833,7 @@
         <v>0.8703549725107844</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.839262437622864</v>
+        <v>0.8392624376228641</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8409966613443673</v>
+        <v>0.8398056286472578</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8452189865040769</v>
+        <v>0.8425552918040531</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.854767489691056</v>
+        <v>0.8504532622099225</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8266445589452425</v>
+        <v>0.8264350033960669</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7869129454347119</v>
+        <v>0.7841950480334622</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8122735081628542</v>
+        <v>0.8097704376511553</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8094377502133894</v>
+        <v>0.8036988424451527</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7830236488844773</v>
+        <v>0.7841899928985238</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.829141444317019</v>
+        <v>0.8273570208178231</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.8404174608972977</v>
+        <v>0.8404849683554599</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8421866336937734</v>
+        <v>0.8440494316336123</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.8170626536181168</v>
+        <v>0.8162496993955503</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9076904965117986</v>
+        <v>0.9115354059850557</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9130281440252231</v>
+        <v>0.9158394201133454</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9204346770305378</v>
+        <v>0.9203814429636776</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.887354025538857</v>
+        <v>0.8863913205502756</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8674703244356102</v>
+        <v>0.8657834468257734</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8961020837011334</v>
+        <v>0.8960331122891169</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8903016505183121</v>
+        <v>0.8883958823406084</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8489763206820394</v>
+        <v>0.8462569566159905</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8794954278348981</v>
+        <v>0.8790573266672781</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8926590694315047</v>
+        <v>0.8925303423539264</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.894141073045607</v>
+        <v>0.8950697965782414</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8593566498290302</v>
+        <v>0.8606524909686242</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.8188741105260389</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7878048969074942</v>
+        <v>0.7878048969074941</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7146245330832651</v>
@@ -969,7 +969,7 @@
         <v>0.7901514072497614</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7619456056206071</v>
+        <v>0.761945605620607</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7961417449425495</v>
+        <v>0.7919288125015259</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.751647147709098</v>
+        <v>0.7519872390136036</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7853537667988487</v>
+        <v>0.7803364136898154</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7496933232711211</v>
+        <v>0.7469989438757695</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6438015183788993</v>
+        <v>0.6400724715324854</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7123598050919724</v>
+        <v>0.7139779549385583</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6170044154398243</v>
+        <v>0.6245582210613154</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6376300535810837</v>
+        <v>0.6381503778251406</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7690239166408172</v>
+        <v>0.7710227892609109</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7515925620685764</v>
+        <v>0.7493736622854421</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7573728161796893</v>
+        <v>0.7572269152713301</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7312914676366232</v>
+        <v>0.7294917301780738</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8603644758072591</v>
+        <v>0.8569193463485677</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8178513359583601</v>
+        <v>0.8225529366368567</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8550151979426308</v>
+        <v>0.8497859679186115</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8240577841079143</v>
+        <v>0.8249849832442726</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7807458928974464</v>
+        <v>0.7792208539388898</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8205619092944402</v>
+        <v>0.8221831332848761</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7708474247527047</v>
+        <v>0.776575352326505</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7503094786859543</v>
+        <v>0.7518317910085245</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8310666939753982</v>
+        <v>0.8294237302869496</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8097898420710616</v>
+        <v>0.8075379269010412</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8203999572467093</v>
+        <v>0.8222907497137152</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7913899778460238</v>
+        <v>0.7906115914874998</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.8114240054865278</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7743988047221719</v>
+        <v>0.774398804722172</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7823041778798229</v>
+        <v>0.7842678523229843</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7522963202634344</v>
+        <v>0.7574164695430617</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7986414038078227</v>
+        <v>0.7979593796863667</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7589263059052389</v>
+        <v>0.7590842892891911</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7260873368456783</v>
+        <v>0.7210478711648609</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7535361599323178</v>
+        <v>0.7547496538208549</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7698425713846375</v>
+        <v>0.7683936586974343</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7387485559298299</v>
+        <v>0.739574626897652</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.765442188383634</v>
+        <v>0.7671428605688109</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7639914290486637</v>
+        <v>0.7638258203091811</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.792374253802048</v>
+        <v>0.7921141091317327</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7578347762059943</v>
+        <v>0.7563919684251256</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8260204860856005</v>
+        <v>0.8282202211440051</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.805682500404678</v>
+        <v>0.8077185110003311</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8445171318920475</v>
+        <v>0.8430537043602211</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8066405004339832</v>
+        <v>0.8059982291951729</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7901752629126383</v>
+        <v>0.7857449433203683</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8161324016366874</v>
+        <v>0.81832228992011</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8301818665102092</v>
+        <v>0.8286861438917238</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7887955876120887</v>
+        <v>0.7877750778233628</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.80346784801153</v>
+        <v>0.8028571967493793</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.805376889065221</v>
+        <v>0.8042868958933785</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8297502075617349</v>
+        <v>0.8282170678395069</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7901076230517807</v>
+        <v>0.7908634472053452</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.7738204531714588</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7771429522544143</v>
+        <v>0.7771429522544142</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.6915004367497315</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7496102065163415</v>
+        <v>0.7478819429001771</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8026569669646854</v>
+        <v>0.8015718838506375</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.738805777706935</v>
+        <v>0.7392035553607498</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7409005224055656</v>
+        <v>0.7404790530770144</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6531428311575327</v>
+        <v>0.6495475740539911</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6147960161667823</v>
+        <v>0.6174715239534659</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6445704821472199</v>
+        <v>0.6437070721074478</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5945449810254084</v>
+        <v>0.5996617489456277</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6965998572535772</v>
+        <v>0.6972608003847565</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6970677612417446</v>
+        <v>0.6979240855391446</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6977765038566524</v>
+        <v>0.6983238469343853</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6664669775808989</v>
+        <v>0.6657208428880586</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8349643908998103</v>
+        <v>0.8360855829103135</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8672652765891633</v>
+        <v>0.8672649200765634</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8044509963714958</v>
+        <v>0.8075132084496798</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8101699911724647</v>
+        <v>0.8097474669331662</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7312075162114858</v>
+        <v>0.7305324866432065</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6858473759857714</v>
+        <v>0.6865647928473146</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7132082865576511</v>
+        <v>0.7145567887907962</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6496433450167169</v>
+        <v>0.653895518875539</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7571539543896894</v>
+        <v>0.7577398325195315</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7486508281943844</v>
+        <v>0.7481123613704571</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7476372848950076</v>
+        <v>0.7471456333521339</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7084047385903484</v>
+        <v>0.708139785308891</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.6869108878469929</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.6701452872155356</v>
+        <v>0.6701452872155357</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.6997040393837953</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9298902537185179</v>
+        <v>0.9291751006730213</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9315492213950236</v>
+        <v>0.9367693902737837</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9092571983076106</v>
+        <v>0.9125190790810008</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8649931716045616</v>
+        <v>0.8602965413998681</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6119715583495247</v>
+        <v>0.6115629512719841</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6286570185746567</v>
+        <v>0.6284424399526536</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.6578841098116898</v>
+        <v>0.6572497843330778</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6424260230480051</v>
+        <v>0.638083722099029</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6752354112081899</v>
+        <v>0.6752312168621259</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6926702238112487</v>
+        <v>0.6936985605370705</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7153762534282272</v>
+        <v>0.7163466602252586</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.6979062760357699</v>
+        <v>0.6982409718690856</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9777398356617066</v>
+        <v>0.9758334937446846</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9873430023509536</v>
+        <v>0.9870493158582437</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.965661092753955</v>
+        <v>0.9661269535858046</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9547409902486695</v>
+        <v>0.9525625917944026</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6652198620394263</v>
+        <v>0.6635116834180855</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6884685249831328</v>
+        <v>0.6865865537344032</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7173285731963532</v>
+        <v>0.7169503939775046</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6996700736433549</v>
+        <v>0.6974004777371866</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.72159561372449</v>
+        <v>0.7220669652406368</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7419092050397398</v>
+        <v>0.7436465132598781</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7656788517646994</v>
+        <v>0.7668758403119726</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.7509975188506004</v>
+        <v>0.749446729939982</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.840485914888582</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8145713202664681</v>
+        <v>0.8145713202664683</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.7151272741977962</v>
@@ -1513,7 +1513,7 @@
         <v>0.7939872482080301</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.7674179997408483</v>
+        <v>0.7674179997408482</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.827573627210508</v>
+        <v>0.8269943078573446</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8171108685900696</v>
+        <v>0.8190060402481444</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8285610901674375</v>
+        <v>0.8271731233810435</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8005958453069492</v>
+        <v>0.8013553506495423</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6986252655210438</v>
+        <v>0.7000561928685172</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7147821463022669</v>
+        <v>0.7157593253745881</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7320386243200875</v>
+        <v>0.7326011734079796</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7099952149333992</v>
+        <v>0.7106774664411259</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7668411340787989</v>
+        <v>0.766522729337459</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7696835801976343</v>
+        <v>0.76870729464831</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.7847415291455543</v>
+        <v>0.7830731094896061</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7584705644772227</v>
+        <v>0.758255007169057</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8536001220998144</v>
+        <v>0.8525715480808438</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8446260158444094</v>
+        <v>0.8452408833382826</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8532917916736832</v>
+        <v>0.8522767353555152</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8271459101698739</v>
+        <v>0.8273064894853074</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7307886165407896</v>
+        <v>0.7300840320422496</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7457962457299959</v>
+        <v>0.7468770069201361</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7661014381600012</v>
+        <v>0.7648848652605363</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7352588948781598</v>
+        <v>0.7343261093085821</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7881285266635082</v>
+        <v>0.7866496338692812</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.7902892355560909</v>
+        <v>0.7892405549655196</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.8051422025476636</v>
+        <v>0.8036328726872135</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7761428763108279</v>
+        <v>0.7767181092629719</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>401175</v>
+        <v>400924</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>367872</v>
+        <v>367600</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>372678</v>
+        <v>373081</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>455084</v>
+        <v>456349</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>242212</v>
+        <v>241409</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>257352</v>
+        <v>257797</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>292763</v>
+        <v>293549</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>393270</v>
+        <v>392334</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>654100</v>
+        <v>652183</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>635551</v>
+        <v>635833</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>673761</v>
+        <v>674717</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>860311</v>
+        <v>859520</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>429818</v>
+        <v>430397</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>396104</v>
+        <v>395978</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>398312</v>
+        <v>397675</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>487639</v>
+        <v>488205</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>268468</v>
+        <v>268795</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>283667</v>
+        <v>282988</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>316827</v>
+        <v>317704</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>421681</v>
+        <v>421543</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>692907</v>
+        <v>691091</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>673166</v>
+        <v>671955</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>708654</v>
+        <v>709907</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>902284</v>
+        <v>903616</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>307850</v>
+        <v>307414</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>351448</v>
+        <v>350340</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>320812</v>
+        <v>319193</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>399445</v>
+        <v>399343</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>292625</v>
+        <v>291615</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>272902</v>
+        <v>272061</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>298113</v>
+        <v>296000</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>331331</v>
+        <v>331825</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>611838</v>
+        <v>610522</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>631809</v>
+        <v>631860</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>626265</v>
+        <v>627650</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>740549</v>
+        <v>739812</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>332264</v>
+        <v>333671</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>379643</v>
+        <v>380812</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>345458</v>
+        <v>345438</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>428780</v>
+        <v>428315</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>322582</v>
+        <v>321955</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>301066</v>
+        <v>301043</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>327895</v>
+        <v>327194</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>359238</v>
+        <v>358088</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>648996</v>
+        <v>648672</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>671083</v>
+        <v>670986</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>664899</v>
+        <v>665590</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>778882</v>
+        <v>780057</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>431023</v>
+        <v>428742</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>470328</v>
+        <v>470541</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>409179</v>
+        <v>406565</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>353564</v>
+        <v>352294</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>108018</v>
+        <v>107393</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>183872</v>
+        <v>184290</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>101827</v>
+        <v>103073</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>119554</v>
+        <v>119651</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>545370</v>
+        <v>546788</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>664292</v>
+        <v>662331</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>519593</v>
+        <v>519492</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>482001</v>
+        <v>480815</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>465793</v>
+        <v>463928</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>511754</v>
+        <v>514696</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>445473</v>
+        <v>442749</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>388636</v>
+        <v>389073</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>130995</v>
+        <v>130739</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>211801</v>
+        <v>212219</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>127216</v>
+        <v>128161</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>140681</v>
+        <v>140966</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>589369</v>
+        <v>588204</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>715730</v>
+        <v>713739</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>562832</v>
+        <v>564129</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>521612</v>
+        <v>521099</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>968016</v>
+        <v>970446</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>860707</v>
+        <v>866565</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>909236</v>
+        <v>908460</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>858985</v>
+        <v>859164</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>518633</v>
+        <v>515034</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>573241</v>
+        <v>574164</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>630628</v>
+        <v>629441</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>636218</v>
+        <v>636930</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1493895</v>
+        <v>1497214</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1455283</v>
+        <v>1454968</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1551187</v>
+        <v>1550677</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1510406</v>
+        <v>1507530</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1022110</v>
+        <v>1024832</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>921787</v>
+        <v>924116</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>961465</v>
+        <v>959799</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>912990</v>
+        <v>912263</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>564410</v>
+        <v>561246</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>620860</v>
+        <v>622526</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>680056</v>
+        <v>678831</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>679319</v>
+        <v>678441</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1568109</v>
+        <v>1566917</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1534116</v>
+        <v>1532039</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1624356</v>
+        <v>1621354</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1574727</v>
+        <v>1576234</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>262780</v>
+        <v>262174</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>403542</v>
+        <v>402997</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>454660</v>
+        <v>454904</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>420805</v>
+        <v>420565</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>371476</v>
+        <v>369431</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>466994</v>
+        <v>469026</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>473063</v>
+        <v>472429</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>493978</v>
+        <v>498229</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>640389</v>
+        <v>640997</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>879943</v>
+        <v>881024</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>941522</v>
+        <v>942260</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>932263</v>
+        <v>931220</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>292701</v>
+        <v>293094</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>436025</v>
+        <v>436024</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>495058</v>
+        <v>496942</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>460147</v>
+        <v>459907</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>415876</v>
+        <v>415492</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>520964</v>
+        <v>521509</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>523437</v>
+        <v>524427</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>539756</v>
+        <v>543289</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>696057</v>
+        <v>696596</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>945059</v>
+        <v>944380</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1008800</v>
+        <v>1008136</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>990926</v>
+        <v>990556</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>277294</v>
+        <v>277081</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>240159</v>
+        <v>241505</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>260242</v>
+        <v>261176</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>205201</v>
+        <v>204086</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>763111</v>
+        <v>762602</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>691670</v>
+        <v>691434</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>704494</v>
+        <v>703815</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>542388</v>
+        <v>538722</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1043355</v>
+        <v>1043348</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>940674</v>
+        <v>942070</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>970810</v>
+        <v>972127</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>754792</v>
+        <v>755154</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>291563</v>
+        <v>290995</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>254543</v>
+        <v>254467</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>276386</v>
+        <v>276519</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>226491</v>
+        <v>225975</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>829511</v>
+        <v>827380</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>757476</v>
+        <v>755406</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>768150</v>
+        <v>767745</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>590718</v>
+        <v>588802</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1114989</v>
+        <v>1115718</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>1007542</v>
+        <v>1009902</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>1039074</v>
+        <v>1040698</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>812211</v>
+        <v>810533</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2703986</v>
+        <v>2702093</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2759839</v>
+        <v>2766240</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2787762</v>
+        <v>2783092</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2756032</v>
+        <v>2758647</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2358794</v>
+        <v>2363625</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2520996</v>
+        <v>2524442</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2563112</v>
+        <v>2565081</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2581112</v>
+        <v>2583592</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>5094664</v>
+        <v>5092549</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>5314280</v>
+        <v>5307540</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>5387969</v>
+        <v>5376514</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>5368355</v>
+        <v>5366830</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2789024</v>
+        <v>2785663</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2852773</v>
+        <v>2854849</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2870970</v>
+        <v>2867555</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2847430</v>
+        <v>2847983</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2467388</v>
+        <v>2465009</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2630381</v>
+        <v>2634193</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>2682377</v>
+        <v>2678117</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>2672955</v>
+        <v>2669564</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5236091</v>
+        <v>5226266</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>5456552</v>
+        <v>5449311</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>5528039</v>
+        <v>5517676</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>5493438</v>
+        <v>5497509</v>
       </c>
     </row>
     <row r="32">
